--- a/biology/Botanique/Rosa_sempervirens/Rosa_sempervirens.xlsx
+++ b/biology/Botanique/Rosa_sempervirens/Rosa_sempervirens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le rosier toujours-vert (Rosa sempervirens) est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Synstylae, originaire d'Europe méridionale, d'Afrique du Nord et d'Asie mineure.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau pouvant atteindre 1,5 mètre de haut, poussant dans les haies ou formant des fourrés. Les formes grimpantes peuvent atteindre 3,5 m de haut.
 Les tiges portent des aiguillons peu nombreux, légèrement courbés.
@@ -546,7 +560,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été introduit en culture en Angleterre en 1629, mais il se peut que ce soit le coroniola de Pline l'Ancien, donc une rose déjà cultivée par les Romains.
 </t>
@@ -577,7 +593,9 @@
           <t>Hybrides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Entre 1825 et 1830, Antoine Jacques, le jardinier-chef du duc d'Orléans (futur Louis-Philippe Ier) obtint une quarantaine de nouveaux rosiers en hybridant Rosa sempervirens et certains sont encore cultivés :
 'Félicité et Perpétue', au feuillage dense et à nombreuses petites fleurs blanches à quartiers parfumées,
@@ -585,7 +603,7 @@
 'Princesse Louise', à fleurs blanches légèrement nuancées de rose,
 'Princesse Marie', à fleurs rose carné,
 'Spectabilis', aux fleurs plus grandes, roses teintées de lilas,
-'Little White Pet', un sport buissonnant de 'Félicité et Perpétue', obtenu par Handerson, haut de 60 cm, aux fleurs en bouquets de pompons, constamment de juin à octobre[1].</t>
+'Little White Pet', un sport buissonnant de 'Félicité et Perpétue', obtenu par Handerson, haut de 60 cm, aux fleurs en bouquets de pompons, constamment de juin à octobre.</t>
         </is>
       </c>
     </row>
@@ -613,9 +631,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Généralement buissonnante, elle prend une forme lianescente dans les forêts alluviales méditerranéennes[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Généralement buissonnante, elle prend une forme lianescente dans les forêts alluviales méditerranéennes.
 </t>
         </is>
       </c>
